--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value731.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value731.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165642563456028</v>
+        <v>0.9213765263557434</v>
       </c>
       <c r="B1">
-        <v>1.691618243164692</v>
+        <v>1.297832131385803</v>
       </c>
       <c r="C1">
+        <v>2.259460926055908</v>
+      </c>
+      <c r="D1">
         <v>-1</v>
       </c>
-      <c r="D1">
-        <v>1.749992431014247</v>
-      </c>
       <c r="E1">
-        <v>1.059929720491478</v>
+        <v>1.724870443344116</v>
       </c>
     </row>
   </sheetData>
